--- a/Temperaturdifferenz_und_Durchschnitt.xlsx
+++ b/Temperaturdifferenz_und_Durchschnitt.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\01_MSc\opencampus_Data Science with R\Gruppenarbeit\Gruppe-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A07DD9C-C007-44C6-9AC9-D76836752689}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF901429-E71B-41CE-8B58-8F2388F481D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperaturdifferenz_und_Durchsc" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,25 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Durchschnittstemperatur</t>
+    <t>Kaelter_als_normal</t>
   </si>
   <si>
-    <t>Tagestemperatur</t>
+    <t>Waermer_als_normal</t>
   </si>
   <si>
-    <t>Differenz</t>
+    <t>Durchschnittstemperatur_monatlich</t>
   </si>
   <si>
-    <t>Wärmer als normal</t>
+    <t>Differenz_zum Mittel</t>
   </si>
   <si>
-    <t>Kälter als normal</t>
+    <t>Tagestemperatur_tatsaechlich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -880,11 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
